--- a/Data/EC/NIT-9008390780.xlsx
+++ b/Data/EC/NIT-9008390780.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7F1B35-5609-4722-A296-8FEB6609B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC4D77A-232C-4DC3-AA68-C1B0A3D05F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{066CA573-4AB4-45B5-ABB5-D969C50F3694}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E2743C9-CCDC-422B-96BB-80F2EEAE6C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,27 +65,36 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050949043</t>
+  </si>
+  <si>
+    <t>GUILLERMO ENRIQUE BAENA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1128056557</t>
+  </si>
+  <si>
+    <t>RAUL EDUARDO LEON GUERRA</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>9299814</t>
+  </si>
+  <si>
+    <t>DAIRO DE JESUS ARNEDO TORRES</t>
+  </si>
+  <si>
     <t>1047410630</t>
   </si>
   <si>
     <t>JOHN FABER LOAIZA FERNANDEZ</t>
   </si>
   <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1128056557</t>
-  </si>
-  <si>
-    <t>RAUL EDUARDO LEON GUERRA</t>
-  </si>
-  <si>
-    <t>9299814</t>
-  </si>
-  <si>
-    <t>DAIRO DE JESUS ARNEDO TORRES</t>
-  </si>
-  <si>
     <t>71267288</t>
   </si>
   <si>
@@ -101,12 +110,12 @@
     <t>FERNANDO JOSE MONTOYA MORENO</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1910</t>
   </si>
   <si>
-    <t>1911</t>
-  </si>
-  <si>
     <t>70256194</t>
   </si>
   <si>
@@ -116,13 +125,13 @@
     <t>2109</t>
   </si>
   <si>
-    <t>1050949043</t>
-  </si>
-  <si>
-    <t>GUILLERMO ENRIQUE BAENA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2203</t>
+    <t>1002193511</t>
+  </si>
+  <si>
+    <t>FABER DAVID LEYVA GARCIA</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>CE</t>
@@ -143,16 +152,22 @@
     <t>WILLINGTON GOMEZ OROZCO NIETO</t>
   </si>
   <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>2408</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
+    <t>1048439803</t>
+  </si>
+  <si>
+    <t>RUTH JIMENEZ LOPÃ©Z</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -566,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C04413-7401-02A8-344E-5E8FE8EE0B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4760B59B-C9FA-54EC-E984-EB663EC95F1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70851FB0-160B-4BEC-A1EC-9DC8E4546B44}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1D6A64-D622-4D95-93D3-80A3C806E4D6}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -942,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -987,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1019,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1268929</v>
+        <v>1377115</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1072,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1095,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1584</v>
+        <v>51917</v>
       </c>
       <c r="G16" s="18">
         <v>1734921</v>
@@ -1115,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>1584</v>
@@ -1132,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>2864</v>
@@ -1155,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>58447</v>
+        <v>1584</v>
       </c>
       <c r="G19" s="18">
-        <v>2482160</v>
+        <v>1734921</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1187,10 +1202,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>161808</v>
+        <v>58447</v>
       </c>
       <c r="G20" s="18">
-        <v>5598657</v>
+        <v>2482160</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1201,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
         <v>161808</v>
@@ -1224,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>7428</v>
+        <v>161808</v>
       </c>
       <c r="G22" s="18">
-        <v>1856933</v>
+        <v>5598657</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1256,10 +1271,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="18">
-        <v>51917</v>
+        <v>7428</v>
       </c>
       <c r="G23" s="18">
-        <v>1734921</v>
+        <v>1856933</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1267,22 +1282,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F24" s="18">
-        <v>398383</v>
+        <v>51246</v>
       </c>
       <c r="G24" s="18">
-        <v>16684960</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1290,7 +1305,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>33</v>
@@ -1302,10 +1317,10 @@
         <v>35</v>
       </c>
       <c r="F25" s="18">
-        <v>83110</v>
+        <v>398383</v>
       </c>
       <c r="G25" s="18">
-        <v>2833287</v>
+        <v>16684960</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1316,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" s="18">
         <v>113332</v>
@@ -1339,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F27" s="18">
         <v>113332</v>
@@ -1358,56 +1373,102 @@
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="C28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="18">
         <v>113332</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="18">
         <v>2833287</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="18">
+        <v>83110</v>
+      </c>
+      <c r="G29" s="18">
+        <v>2833287</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008390780.xlsx
+++ b/Data/EC/NIT-9008390780.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC4D77A-232C-4DC3-AA68-C1B0A3D05F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F765100B-9CC6-4E39-B788-551D1A986D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E2743C9-CCDC-422B-96BB-80F2EEAE6C4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EAC8E532-7D63-49A2-A9DB-656DD118BA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,57 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128056557</t>
+  </si>
+  <si>
+    <t>RAUL EDUARDO LEON GUERRA</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>9299814</t>
+  </si>
+  <si>
+    <t>DAIRO DE JESUS ARNEDO TORRES</t>
+  </si>
+  <si>
+    <t>1047410630</t>
+  </si>
+  <si>
+    <t>JOHN FABER LOAIZA FERNANDEZ</t>
+  </si>
+  <si>
+    <t>71267288</t>
+  </si>
+  <si>
+    <t>JORGE ANDRES GIL RESTREPO</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>98666591</t>
+  </si>
+  <si>
+    <t>FERNANDO JOSE MONTOYA MORENO</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>70256194</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES LONDOÑO CARVAJAL</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>1050949043</t>
   </si>
   <si>
@@ -74,66 +125,6 @@
     <t>2203</t>
   </si>
   <si>
-    <t>1128056557</t>
-  </si>
-  <si>
-    <t>RAUL EDUARDO LEON GUERRA</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>9299814</t>
-  </si>
-  <si>
-    <t>DAIRO DE JESUS ARNEDO TORRES</t>
-  </si>
-  <si>
-    <t>1047410630</t>
-  </si>
-  <si>
-    <t>JOHN FABER LOAIZA FERNANDEZ</t>
-  </si>
-  <si>
-    <t>71267288</t>
-  </si>
-  <si>
-    <t>JORGE ANDRES GIL RESTREPO</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>98666591</t>
-  </si>
-  <si>
-    <t>FERNANDO JOSE MONTOYA MORENO</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>70256194</t>
-  </si>
-  <si>
-    <t>SERGIO ANDRES LONDOÑO CARVAJAL</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1002193511</t>
-  </si>
-  <si>
-    <t>FABER DAVID LEYVA GARCIA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -152,22 +143,16 @@
     <t>WILLINGTON GOMEZ OROZCO NIETO</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1048439803</t>
-  </si>
-  <si>
-    <t>RUTH JIMENEZ LOPÃ©Z</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4760B59B-C9FA-54EC-E984-EB663EC95F1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5EF564-80E1-BFEA-6582-A6BE4CAAA669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1D6A64-D622-4D95-93D3-80A3C806E4D6}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C7F8C7-BC17-4533-9FE5-7D602F8B0D73}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -957,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1377115</v>
+        <v>1268929</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,17 +1035,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1087,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>51917</v>
+        <v>1584</v>
       </c>
       <c r="G16" s="18">
-        <v>1734921</v>
+        <v>1264900</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1130,13 +1115,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>1584</v>
+        <v>2864</v>
       </c>
       <c r="G17" s="18">
-        <v>1264900</v>
+        <v>2148200</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,19 +1132,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>2864</v>
+        <v>1584</v>
       </c>
       <c r="G18" s="18">
-        <v>2148200</v>
+        <v>1734921</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="18">
-        <v>1584</v>
+        <v>58447</v>
       </c>
       <c r="G19" s="18">
-        <v>1734921</v>
+        <v>2636054</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1202,10 +1187,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>58447</v>
+        <v>161808</v>
       </c>
       <c r="G20" s="18">
-        <v>2482160</v>
+        <v>5945774</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1216,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F21" s="18">
         <v>161808</v>
       </c>
       <c r="G21" s="18">
-        <v>5598657</v>
+        <v>5945774</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1239,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>161808</v>
+        <v>7428</v>
       </c>
       <c r="G22" s="18">
-        <v>5598657</v>
+        <v>1856933</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1271,10 +1256,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="18">
-        <v>7428</v>
+        <v>51917</v>
       </c>
       <c r="G23" s="18">
-        <v>1856933</v>
+        <v>1842486</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1282,22 +1267,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="18">
-        <v>51246</v>
+        <v>398383</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>17784960</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,7 +1290,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>33</v>
@@ -1317,10 +1302,10 @@
         <v>35</v>
       </c>
       <c r="F25" s="18">
-        <v>398383</v>
+        <v>83110</v>
       </c>
       <c r="G25" s="18">
-        <v>16684960</v>
+        <v>3008951</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F26" s="18">
         <v>113332</v>
       </c>
       <c r="G26" s="18">
-        <v>2833287</v>
+        <v>3008951</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1354,121 +1339,75 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F27" s="18">
         <v>113332</v>
       </c>
       <c r="G27" s="18">
-        <v>2833287</v>
+        <v>3008951</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="C28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="24">
         <v>113332</v>
       </c>
-      <c r="G28" s="18">
-        <v>2833287</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="18">
-        <v>83110</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2833287</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G30" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="G28" s="24">
+        <v>3008951</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008390780.xlsx
+++ b/Data/EC/NIT-9008390780.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F765100B-9CC6-4E39-B788-551D1A986D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBC1A58-5730-4139-92A5-20377C26E120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EAC8E532-7D63-49A2-A9DB-656DD118BA54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB7207A7-F656-42D7-94B1-5568A3A237E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -266,7 +264,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,29 +460,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,19 +501,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +572,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5EF564-80E1-BFEA-6582-A6BE4CAAA669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2737B7-966B-7F4D-EDA3-79086A0AAEF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C7F8C7-BC17-4533-9FE5-7D602F8B0D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C8543C-1944-48F2-8AF0-2920495AEDC5}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -940,49 +946,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -990,7 +996,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008390780</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1268929</v>
       </c>
@@ -1091,18 +1097,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>1584</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1264900</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1114,18 +1120,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>2864</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>2148200</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1137,18 +1143,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>1584</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1734921</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1160,18 +1166,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>58447</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>2636054</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1183,18 +1189,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>161808</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>5945774</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1206,18 +1212,18 @@
       <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>161808</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>5945774</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1229,18 +1235,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>7428</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1856933</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1252,18 +1258,18 @@
       <c r="D23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>51917</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1842486</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1275,18 +1281,18 @@
       <c r="D24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>398383</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>17784960</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1298,18 +1304,18 @@
       <c r="D25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>83110</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>3008951</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1321,18 +1327,18 @@
       <c r="D26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>113332</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>3008951</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1344,47 +1350,47 @@
       <c r="D27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>113332</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>3008951</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="26">
         <v>113332</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="26">
         <v>3008951</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="34"/>
       <c r="H33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1392,10 +1398,10 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="34"/>
       <c r="H34" s="1" t="s">
         <v>49</v>
       </c>
